--- a/data/georgia_census/mcxeta-mtianeti/dusheti/age_dependency.xlsx
+++ b/data/georgia_census/mcxeta-mtianeti/dusheti/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E0B53E-E870-47D3-8F47-B1F4ACC4526E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EDBD706-08BA-4ED3-A3A3-9EF305E19BB8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{009812B9-E8A3-4F91-A803-6EE800F87823}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C24AC2B-40F4-4624-8495-BC5C7028D16E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42318654-5B1C-4B8C-B15A-4470160E1F98}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45267C99-D625-4D86-A88A-9A62199CCF23}"/>
 </file>